--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MecProInverter\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F477C7F-B38A-4DC7-89A3-8AA75E267172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83168915-179C-48DF-A3B3-105AD6FB9B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsaufbau" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/Vishay-Semiconductors/LVE2560E-M3-P?qs=sGAEpiMZZMtbRapU8LlZD8qu4xuMq4%252BS63dZArvFfxwhSO9MdVDCog%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/entwicklerboards-display-oled-1-3-128x64-pixel-ssd1306-debo-oled-1-3-p235524.html?&amp;trstct=pos_1&amp;nbc=1</t>
+  </si>
+  <si>
+    <t>DEBO OLED 1.3</t>
+  </si>
+  <si>
+    <t>Reichelt</t>
+  </si>
+  <si>
+    <t>Display</t>
   </si>
 </sst>
 </file>
@@ -465,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,16 +554,28 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25.95</v>
+      </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J39" si="0">PRODUCT(H7:I7)</f>
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -1112,7 +1136,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J6:J39)</f>
-        <v>4.57</v>
+        <v>30.52</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1120,7 +1144,10 @@
       <c r="K42" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83168915-179C-48DF-A3B3-105AD6FB9B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CBBC60-8832-455C-BC72-D79B4BF1B9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -90,13 +90,34 @@
   </si>
   <si>
     <t>Display</t>
+  </si>
+  <si>
+    <t>Kondensator</t>
+  </si>
+  <si>
+    <t>ESMQ351VSN102MA50S</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Chemi-Con/ESMQ351VSN102MA50S?qs=xI6Y96ivSIymLA4AkGqstA%3D%3D</t>
+  </si>
+  <si>
+    <t>Mechanik</t>
+  </si>
+  <si>
+    <t>Halbbrücke</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>Elektronik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +142,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -193,6 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -477,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,29 +555,16 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.57</v>
-      </c>
-      <c r="J6" s="1">
-        <f>PRODUCT(H6:I6)</f>
-        <v>4.57</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -583,16 +600,28 @@
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.4</v>
+      </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.200000000000003</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -600,7 +629,9 @@
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -617,7 +648,9 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -634,16 +667,28 @@
       <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.57</v>
+      </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>PRODUCT(H11:I11)</f>
+        <v>4.57</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -906,7 +951,9 @@
       <c r="B27" s="1">
         <v>22</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1135,8 +1182,8 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <f>SUM(J6:J39)</f>
-        <v>30.52</v>
+        <f>SUM(J7:J39)</f>
+        <v>46.720000000000006</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1145,7 +1192,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>

--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CBBC60-8832-455C-BC72-D79B4BF1B9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45115EA-6C80-4B0C-A24A-99A91AA0CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -111,13 +111,19 @@
   </si>
   <si>
     <t>Elektronik</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Infineon-Technologies/IKCM20L60GA?qs=geqVyQakq09sMqSgPnylYg%3D%3D</t>
+  </si>
+  <si>
+    <t>IKCM20H60GA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +159,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -214,7 +226,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -223,6 +235,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -508,7 +521,7 @@
   <dimension ref="B5:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,15 +645,25 @@
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>13.8</v>
+      </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.400000000000006</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -1183,7 +1206,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J7:J39)</f>
-        <v>46.720000000000006</v>
+        <v>88.12</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1192,9 +1215,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{90CFBBEC-DA73-4551-B040-F04E04A512BB}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{6BE78A06-D8F3-4A31-9318-5AE8D715EF6C}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{B4631C0F-A09A-44DF-AAA0-DA5220F808B8}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45115EA-6C80-4B0C-A24A-99A91AA0CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ABD6B3-BD1D-49F8-9F14-C82A85CE00B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -80,18 +80,6 @@
     <t>https://www.mouser.de/ProductDetail/Vishay-Semiconductors/LVE2560E-M3-P?qs=sGAEpiMZZMtbRapU8LlZD8qu4xuMq4%252BS63dZArvFfxwhSO9MdVDCog%3D%3D</t>
   </si>
   <si>
-    <t>https://www.reichelt.de/entwicklerboards-display-oled-1-3-128x64-pixel-ssd1306-debo-oled-1-3-p235524.html?&amp;trstct=pos_1&amp;nbc=1</t>
-  </si>
-  <si>
-    <t>DEBO OLED 1.3</t>
-  </si>
-  <si>
-    <t>Reichelt</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
     <t>Kondensator</t>
   </si>
   <si>
@@ -117,6 +105,27 @@
   </si>
   <si>
     <t>IKCM20H60GA</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Phoenix-Contact/1871762?qs=sGAEpiMZZMvPvGwLNS6714u61D8KxMs7giPQfMTmITY%3D</t>
+  </si>
+  <si>
+    <t>Power Terminal</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/MEAN-WELL/IRM-20-15?qs=WkdRfq4wf1Ne04vP4qNfjQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Spannungswandler 15Volt</t>
+  </si>
+  <si>
+    <t>IRM-20-15</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/TE-Connectivity-PB/RTD14012F?qs=wG8I%2FCOA%2FTuTYxE%252BmbBPYA%3D%3D</t>
+  </si>
+  <si>
+    <t>RTD14012F</t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -220,13 +229,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -235,7 +270,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -520,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -584,28 +624,16 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>25.95</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J39" si="0">PRODUCT(H7:I7)</f>
-        <v>25.95</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -614,27 +642,27 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1">
         <v>5.4</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>16.200000000000003</v>
+        <v>21.6</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -643,17 +671,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
@@ -672,17 +700,27 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -693,7 +731,7 @@
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -719,16 +757,28 @@
       <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1871762</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6.2</v>
+      </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -736,16 +786,28 @@
       <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11.4</v>
+      </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -975,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1206,7 +1268,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J7:J39)</f>
-        <v>88.12</v>
+        <v>90.17</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1216,11 +1278,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{90CFBBEC-DA73-4551-B040-F04E04A512BB}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{6BE78A06-D8F3-4A31-9318-5AE8D715EF6C}"/>
-    <hyperlink ref="G8" r:id="rId3" xr:uid="{B4631C0F-A09A-44DF-AAA0-DA5220F808B8}"/>
-    <hyperlink ref="G11" r:id="rId4" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{B4631C0F-A09A-44DF-AAA0-DA5220F808B8}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ABD6B3-BD1D-49F8-9F14-C82A85CE00B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8A194-923E-4A4D-8569-DB723CA481FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsaufbau" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -126,6 +126,24 @@
   </si>
   <si>
     <t>RTD14012F</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Molex/22-23-2031?qs=ILqg114nvd41XyIAFDpXfw%3D%3D</t>
+  </si>
+  <si>
+    <t>Lüfter Stecker</t>
+  </si>
+  <si>
+    <t>Molex22-23-2031</t>
+  </si>
+  <si>
+    <t>Temperatursensor</t>
+  </si>
+  <si>
+    <t>LM61CIZ</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Texas-Instruments/LM61CIZ-NOPB?qs=QbsRYf82W3FpPNWgHr5KYQ%3D%3D&amp;mgh=1&amp;vip=1&amp;gad_source=1&amp;gclid=Cj0KCQiAmNeqBhD4ARIsADsYfTdfPT9-gBk-AidRmw8S7TfaZkjRwcau904p75DpDrrkeGyc9jVvZaAaAroWEALw_wcB252BabhegV8eBQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -560,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,14 +702,14 @@
         <v>21</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
         <v>13.8</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>41.400000000000006</v>
+        <v>27.6</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -815,16 +833,28 @@
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.17</v>
+      </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -832,16 +862,28 @@
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.37</v>
+      </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -1268,7 +1310,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J7:J39)</f>
-        <v>90.17</v>
+        <v>79.440000000000012</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1280,8 +1322,9 @@
     <hyperlink ref="G9" r:id="rId1" xr:uid="{90CFBBEC-DA73-4551-B040-F04E04A512BB}"/>
     <hyperlink ref="G8" r:id="rId2" xr:uid="{B4631C0F-A09A-44DF-AAA0-DA5220F808B8}"/>
     <hyperlink ref="G11" r:id="rId3" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
+    <hyperlink ref="G15" r:id="rId4" xr:uid="{AABDB1F6-90E2-496B-A1ED-AA34C15F0560}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8A194-923E-4A4D-8569-DB723CA481FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2429A4-77C0-4941-ABB2-11FD904D0DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsaufbau" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <t>LM61CIZ</t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/Texas-Instruments/LM61CIZ-NOPB?qs=QbsRYf82W3FpPNWgHr5KYQ%3D%3D&amp;mgh=1&amp;vip=1&amp;gad_source=1&amp;gclid=Cj0KCQiAmNeqBhD4ARIsADsYfTdfPT9-gBk-AidRmw8S7TfaZkjRwcau904p75DpDrrkeGyc9jVvZaAaAroWEALw_wcB252BabhegV8eBQ%3D%3D</t>
+    <t>https://www.mouser.de/ProductDetail/Analog-Devices-Maxim-Integrated/MAX31820MCR%2b?qs=ZrtEiRxEuI57kGmaRmGvXA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,14 +702,14 @@
         <v>21</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>13.8</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J7:J39)</f>
-        <v>79.440000000000012</v>
+        <v>51.84</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1323,8 +1323,9 @@
     <hyperlink ref="G8" r:id="rId2" xr:uid="{B4631C0F-A09A-44DF-AAA0-DA5220F808B8}"/>
     <hyperlink ref="G11" r:id="rId3" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
     <hyperlink ref="G15" r:id="rId4" xr:uid="{AABDB1F6-90E2-496B-A1ED-AA34C15F0560}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{CE1F3961-752A-42B5-A80C-303157A30193}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2429A4-77C0-4941-ABB2-11FD904D0DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA92207D-737A-43A0-94BE-BE4E937F8C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/Analog-Devices-Maxim-Integrated/MAX31820MCR%2b?qs=ZrtEiRxEuI57kGmaRmGvXA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Adafruit/938?qs=GURawfaeGuBw18l06EFBdw%3D%3D</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Adafruit 938</t>
   </si>
 </sst>
 </file>
@@ -579,7 +588,7 @@
   <dimension ref="B5:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,16 +900,28 @@
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>18.555</v>
+      </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.555</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1310,7 +1331,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J7:J39)</f>
-        <v>51.84</v>
+        <v>70.39500000000001</v>
       </c>
       <c r="K40" s="5"/>
     </row>

--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA92207D-737A-43A0-94BE-BE4E937F8C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF67AA-30F3-4CBC-8F98-E21FA90B78A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsaufbau" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>IKCM20H60GA</t>
   </si>
   <si>
-    <t>https://eu.mouser.com/ProductDetail/Phoenix-Contact/1871762?qs=sGAEpiMZZMvPvGwLNS6714u61D8KxMs7giPQfMTmITY%3D</t>
-  </si>
-  <si>
     <t>Power Terminal</t>
   </si>
   <si>
@@ -153,6 +150,36 @@
   </si>
   <si>
     <t>Adafruit 938</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/TRACO-Power/TEA-1-0505HI?qs=GedFDFLaBXGYgii%2FlopLEg%3D%3D&amp;gad_source=1&amp;gclid=Cj0KCQiA35urBhDCARIsAOU7Qwkh1atrjljjAtq66c8RNVve3-KOwdwmM_z8IFRbdFpXH546Ydx3Nc8aAlj1EALw_wcB</t>
+  </si>
+  <si>
+    <t>Spannungswandler 5V-5V</t>
+  </si>
+  <si>
+    <t>TEA 1-0505HI</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/CUI-Devices/TB001-500-06BE?qs=sGAEpiMZZMvPvGwLNS671%2FDanv8Jav06qmx7nwyWvjqUOqAcn3l2Sw%3D%3D</t>
+  </si>
+  <si>
+    <t>Signal Terminal</t>
+  </si>
+  <si>
+    <t>TB001-500-06BE</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>RK09D113000K</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Alps-Alpine/RK09D113000K?qs=oKW7zmyQiO5%2FMNsP8zcsfA%3D%3D</t>
+  </si>
+  <si>
+    <t>jihu</t>
   </si>
 </sst>
 </file>
@@ -587,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,14 +757,14 @@
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -785,27 +812,27 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="11">
-        <v>1871762</v>
+        <v>1935187</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>6.2</v>
+        <v>0.93</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>3.72</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -814,17 +841,17 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -843,17 +870,17 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1">
         <v>10</v>
@@ -872,17 +899,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -901,17 +928,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -929,16 +956,28 @@
       <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.1</v>
+      </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -946,16 +985,28 @@
       <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.54</v>
+      </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -963,16 +1014,28 @@
       <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.89</v>
+      </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1331,7 +1394,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J7:J39)</f>
-        <v>70.39500000000001</v>
+        <v>77.194999999999993</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1344,7 +1407,7 @@
     <hyperlink ref="G8" r:id="rId2" xr:uid="{B4631C0F-A09A-44DF-AAA0-DA5220F808B8}"/>
     <hyperlink ref="G11" r:id="rId3" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
     <hyperlink ref="G15" r:id="rId4" xr:uid="{AABDB1F6-90E2-496B-A1ED-AA34C15F0560}"/>
-    <hyperlink ref="G12" r:id="rId5" xr:uid="{CE1F3961-752A-42B5-A80C-303157A30193}"/>
+    <hyperlink ref="G18" r:id="rId5" xr:uid="{CDA76354-33CE-4313-BE7F-69BEA71F1B32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>

--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF67AA-30F3-4CBC-8F98-E21FA90B78A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2876750-5EF8-4EF5-8C34-41105B3D4235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54060" yWindow="5400" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsaufbau" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -179,7 +179,19 @@
     <t>https://www.mouser.de/ProductDetail/Alps-Alpine/RK09D113000K?qs=oKW7zmyQiO5%2FMNsP8zcsfA%3D%3D</t>
   </si>
   <si>
-    <t>jihu</t>
+    <t>https://www.mouser.de/ProductDetail/Phoenix-Contact/1935187?qs=W3wJikR1%252BS5tIYApIw6HoQ%3D%3D</t>
+  </si>
+  <si>
+    <t>651-1935187</t>
+  </si>
+  <si>
+    <t>Keramik Kondensator</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/KEMET/C1210C104MBRACTU?qs=%2FukktrhNKsZSienwvzOPlQ%3D%3D</t>
+  </si>
+  <si>
+    <t>C1210C104MBRACTU</t>
   </si>
 </sst>
 </file>
@@ -315,7 +327,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -330,6 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -614,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,8 +827,8 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11">
-        <v>1935187</v>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -1043,16 +1056,28 @@
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.21</v>
+      </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -1394,7 +1419,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J7:J39)</f>
-        <v>77.194999999999993</v>
+        <v>79.294999999999987</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1408,8 +1433,9 @@
     <hyperlink ref="G11" r:id="rId3" xr:uid="{482BA63D-3ED6-4363-9DA5-B00A61D07758}"/>
     <hyperlink ref="G15" r:id="rId4" xr:uid="{AABDB1F6-90E2-496B-A1ED-AA34C15F0560}"/>
     <hyperlink ref="G18" r:id="rId5" xr:uid="{CDA76354-33CE-4313-BE7F-69BEA71F1B32}"/>
+    <hyperlink ref="G12" r:id="rId6" xr:uid="{D6DE3ACE-832F-4ED6-9D70-F5F8CF734CC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2876750-5EF8-4EF5-8C34-41105B3D4235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96594597-ADA1-49F7-B106-2D3070E6AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54060" yWindow="5400" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsaufbau" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
   <dimension ref="B5:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H19" s="1">
@@ -1434,8 +1434,9 @@
     <hyperlink ref="G15" r:id="rId4" xr:uid="{AABDB1F6-90E2-496B-A1ED-AA34C15F0560}"/>
     <hyperlink ref="G18" r:id="rId5" xr:uid="{CDA76354-33CE-4313-BE7F-69BEA71F1B32}"/>
     <hyperlink ref="G12" r:id="rId6" xr:uid="{D6DE3ACE-832F-4ED6-9D70-F5F8CF734CC3}"/>
+    <hyperlink ref="G19" r:id="rId7" xr:uid="{7FCCD806-E8AB-491A-83FD-AFA5E46D908F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
 </worksheet>
 </file>
--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96594597-ADA1-49F7-B106-2D3070E6AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AC3783-8CD4-478C-ABC0-5DC74DBB6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="B5:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,8 +1435,9 @@
     <hyperlink ref="G18" r:id="rId5" xr:uid="{CDA76354-33CE-4313-BE7F-69BEA71F1B32}"/>
     <hyperlink ref="G12" r:id="rId6" xr:uid="{D6DE3ACE-832F-4ED6-9D70-F5F8CF734CC3}"/>
     <hyperlink ref="G19" r:id="rId7" xr:uid="{7FCCD806-E8AB-491A-83FD-AFA5E46D908F}"/>
+    <hyperlink ref="G17" r:id="rId8" xr:uid="{86EC2049-4A85-4515-88CC-02C573409089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
 </worksheet>
 </file>
--- a/documentation/MecProInverter_Bestellliste.xlsx
+++ b/documentation/MecProInverter_Bestellliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MecProInverter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AC3783-8CD4-478C-ABC0-5DC74DBB6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6828BF04-F0A0-4AD7-BB72-DECB3496B004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="2820" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsaufbau" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>C1210C104MBRACTU</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Bourns/PWR220T-20-15R0F?qs=%2FxQVPCMPNziUrCAUz897Iw%3D%3D</t>
+  </si>
+  <si>
+    <t>Leistungswiderstand</t>
+  </si>
+  <si>
+    <t>PWR220T-20-15R0F</t>
   </si>
 </sst>
 </file>
@@ -627,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="1">
@@ -1085,16 +1094,28 @@
       <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3.42</v>
+      </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.84</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -1419,7 +1440,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1">
         <f>SUM(J7:J39)</f>
-        <v>79.294999999999987</v>
+        <v>86.134999999999991</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -1436,8 +1457,9 @@
     <hyperlink ref="G12" r:id="rId6" xr:uid="{D6DE3ACE-832F-4ED6-9D70-F5F8CF734CC3}"/>
     <hyperlink ref="G19" r:id="rId7" xr:uid="{7FCCD806-E8AB-491A-83FD-AFA5E46D908F}"/>
     <hyperlink ref="G17" r:id="rId8" xr:uid="{86EC2049-4A85-4515-88CC-02C573409089}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{416D3EC4-6BC1-44DF-A270-5D268A2743E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId10"/>
 </worksheet>
 </file>